--- a/A02P959_Buff Fin Calc.xlsx
+++ b/A02P959_Buff Fin Calc.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12.- MR JOB\1.-JOB\2.- A02P959\REVISION DE CONSTRUCCION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12.- MR JOB\1.-JOB\2.- A02P959\REVISION DE CONSTRUCCION 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C41FB58-FE6A-415E-BFDD-1345387A292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B96C7F2-5A67-4528-A905-C9A722DC0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FII9xdQ8nYlcZ53A4GQrWQ/e825B6fn3unw+plQMytnFsUkitSJRJ2Cuh7xlkEp6QTwrsu+DN7Z23felzt5+xw==" workbookSaltValue="Zd7fKGY+E4S7GJKHgn67NQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="17">
-        <v>7677.63</v>
+        <v>12827.43</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1020.91</v>
+        <v>1575.06</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="13">
-        <v>2265.9699999999998</v>
+        <v>5818.73</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D6" s="11">
         <f>D5/D3</f>
-        <v>0.29513925521287165</v>
+        <v>0.45361619591765456</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>5</v>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D7" s="9">
         <f>D4/D3</f>
-        <v>0.13297202391883953</v>
+        <v>0.12278843073008389</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="2"/>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="D8" s="18">
         <f>D4*0.3+(IF(AND(D6&lt;10%),0,IF(AND(D6&gt;=10%,D6&lt;33%),D5*15%,IF(AND(D6&gt;=33%,D6&lt;50%),D5*20%,IF(AND(D6&gt;=50%,D6&lt;65%),D5*25%,IF(AND(D6&gt;=65%),D5*35%))))))</f>
-        <v>646.16849999999999</v>
+        <v>1636.2639999999999</v>
       </c>
       <c r="E8" s="14">
         <f>D8/120</f>
-        <v>5.3847375</v>
+        <v>13.635533333333333</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="49"/>
@@ -1255,11 +1255,11 @@
       </c>
       <c r="D9" s="16">
         <f>D8*1.5</f>
-        <v>969.25274999999999</v>
+        <v>2454.3959999999997</v>
       </c>
       <c r="E9" s="15">
         <f>D9/120</f>
-        <v>8.0771062499999999</v>
+        <v>20.453299999999999</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="49"/>
@@ -1351,6 +1351,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E30575D6691FC4D88E66969B9AE5C04" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5bf3aa3b41734c5cf47a841a01506e92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1464,38 +1479,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F0039D-B9B3-4FF1-8E32-07199D064B63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C2D3E2-325B-46A1-BA2F-95A5BF61F7B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1510,10 +1494,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97A9FE6C-C93F-402D-B4D4-1CE8E9DDDCBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F0039D-B9B3-4FF1-8E32-07199D064B63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>